--- a/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="35">
   <si>
     <t>Case ID</t>
   </si>

--- a/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="35">
   <si>
     <t>Case ID</t>
   </si>

--- a/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="35">
   <si>
     <t>Case ID</t>
   </si>

--- a/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="35">
   <si>
     <t>Case ID</t>
   </si>

--- a/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="35">
   <si>
     <t>Case ID</t>
   </si>

--- a/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="35">
   <si>
     <t>Case ID</t>
   </si>

--- a/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\OutputFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{448D9E77-F877-41BA-B3CC-C25C32724A1E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CypherOutput" r:id="rId1" sheetId="1"/>
-    <sheet name="CypherOutput_Message" r:id="rId2" sheetId="2"/>
-    <sheet name="StatOutput" r:id="rId3" sheetId="3"/>
-    <sheet name="StatOutput_Message" r:id="rId4" sheetId="4"/>
+    <sheet name="CypherOutput" r:id="rId3" sheetId="1"/>
+    <sheet name="CypherOutput_Message" r:id="rId4" sheetId="2"/>
+    <sheet name="StatOutput" r:id="rId5" sheetId="3"/>
+    <sheet name="StatOutput_Message" r:id="rId6" sheetId="4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="35">
   <si>
     <t>Case ID</t>
   </si>
@@ -134,11 +126,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -150,7 +142,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -168,324 +160,16 @@
   <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -551,12 +235,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -614,12 +298,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -655,12 +339,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="35">
   <si>
     <t>Case ID</t>
   </si>

--- a/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="35">
   <si>
     <t>Case ID</t>
   </si>

--- a/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="35">
   <si>
     <t>Case ID</t>
   </si>

--- a/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
@@ -10,12 +10,14 @@
     <sheet name="CypherOutput_Message" r:id="rId4" sheetId="2"/>
     <sheet name="StatOutput" r:id="rId5" sheetId="3"/>
     <sheet name="StatOutput_Message" r:id="rId6" sheetId="4"/>
+    <sheet name="CaseDetailStat" r:id="rId7" sheetId="5"/>
+    <sheet name="CaseDetailStat_Message" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="35">
   <si>
     <t>Case ID</t>
   </si>
@@ -449,4 +451,208 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\OutputFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr documentId="13_ncr:1_{EBFF406D-0B7F-42D5-92E1-3ECB6B7AF632}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="4" firstSheet="1" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="CypherOutput" r:id="rId3" sheetId="1"/>
-    <sheet name="CypherOutput_Message" r:id="rId4" sheetId="2"/>
-    <sheet name="StatOutput" r:id="rId5" sheetId="3"/>
-    <sheet name="StatOutput_Message" r:id="rId6" sheetId="4"/>
-    <sheet name="CaseDetailStat" r:id="rId7" sheetId="5"/>
-    <sheet name="CaseDetailStat_Message" r:id="rId8" sheetId="6"/>
+    <sheet name="CypherOutput" r:id="rId1" sheetId="1"/>
+    <sheet name="CypherOutput_Message" r:id="rId2" sheetId="2"/>
+    <sheet name="StatOutput" r:id="rId3" sheetId="3"/>
+    <sheet name="StatOutput_Message" r:id="rId4" sheetId="4"/>
+    <sheet name="CaseDetailStat" r:id="rId5" sheetId="5"/>
+    <sheet name="CaseDetailStat_Message" r:id="rId6" sheetId="6"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="47">
   <si>
     <t>Case ID</t>
   </si>
@@ -123,16 +131,52 @@
   </si>
   <si>
     <t>MATCH (s:study) WITH COLLECT(DISTINCT(s.clinical_study_designation)) AS all_studies MATCH (d:demographic) WITH COLLECT(DISTINCT(d.breed)) AS all_breeds, COLLECT(DISTINCT(d.sex)) AS all_sexes, all_studies MATCH (d:diagnosis) WITH COLLECT(DISTINCT(d.disease_term)) AS all_diseases, all_breeds, all_sexes, all_studies MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis) WHERE demo.breed IN['Akita']  OPTIONAL MATCH (f:file)-[*]-&gt;(c), (samp:sample)-[*]-&gt;(c) WITH DISTINCT c AS c, p, s, demo, diag, f, samp RETURN count(DISTINCT(f)) as number_of_files , count(DISTINCT(samp)) as number_of_sample , count(DISTINCT(c.case_id)) as number_of_cases , count(DISTINCT(s.clinical_study_designation)) as number_of_study</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>File Type</t>
+  </si>
+  <si>
+    <t>Association</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>CCB010072.pdf</t>
+  </si>
+  <si>
+    <t>Pathology Report</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>57.732421875</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)-[*]-&gt;(c:case) WITH DISTINCT(f) AS f, c MATCH (f)--&gt;(parent) WHERE c.case_id IN ['NCATS-COP01CCB010072'] RETURN f.file_name AS `File Name` ,f.file_type AS `File Type`,head(labels(parent)) AS `Association`, f.file_description AS `Description`,f.file_format AS Format,((f.file_size)/1024) AS Size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -144,7 +188,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -162,16 +206,326 @@
   <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -237,12 +591,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -300,12 +654,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -341,12 +695,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -454,39 +810,60 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="10.26953125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.81640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.36328125" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -495,12 +872,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -639,7 +1018,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">

--- a/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="47">
   <si>
     <t>Case ID</t>
   </si>

--- a/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Breed-Akita_Neo4jData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="47">
   <si>
     <t>Case ID</t>
   </si>
